--- a/Project Gladiator/ModulesFunctionality.xlsx
+++ b/Project Gladiator/ModulesFunctionality.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagch\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTI\LTI TRAINING\LTI Project Gladiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76893AD2-8ADD-434D-99A8-0F6C4454802D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C995A066-DDF2-4357-997A-C8BA18E15F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="84" yWindow="1764" windowWidth="17052" windowHeight="8964" xr2:uid="{A9A157A2-2609-4AC2-874E-1E89FFF46A4A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A9A157A2-2609-4AC2-874E-1E89FFF46A4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
   <si>
     <t>Module</t>
   </si>
@@ -42,59 +42,203 @@
     <t>Priority</t>
   </si>
   <si>
+    <t>ADMIN LOGIN</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>REGISTRATION</t>
+  </si>
+  <si>
+    <t>FORGOT PASSWORD</t>
+  </si>
+  <si>
+    <t>ADD BUS</t>
+  </si>
+  <si>
+    <t>DELETE BUS</t>
+  </si>
+  <si>
+    <t>UPDATE BUS</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>PhoneNo</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
     <t>Login</t>
   </si>
   <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>Forgot password</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Insert</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>User Login</t>
-  </si>
-  <si>
-    <t>Admin Login</t>
-  </si>
-  <si>
-    <t>AdminLogin</t>
-  </si>
-  <si>
-    <t>Add Bus</t>
-  </si>
-  <si>
-    <t>Bus</t>
-  </si>
-  <si>
-    <t>Update Bus</t>
-  </si>
-  <si>
-    <t>Remove Bus</t>
-  </si>
-  <si>
-    <t>Delete</t>
+    <t>BusId</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>BasePrice</t>
+  </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>Available Seat</t>
+  </si>
+  <si>
+    <t>TotalCost</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>From Date</t>
+  </si>
+  <si>
+    <t>To Date</t>
+  </si>
+  <si>
+    <t>Ticket Id</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>No of Seats</t>
+  </si>
+  <si>
+    <t>Seat</t>
+  </si>
+  <si>
+    <t>SeatId</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>PassengerId</t>
+  </si>
+  <si>
+    <t>Seat Id</t>
+  </si>
+  <si>
+    <t>Bus Id</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Bus Schedule</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>BUS AVAILAILITY</t>
+  </si>
+  <si>
+    <t>MAKE RESERVATION</t>
+  </si>
+  <si>
+    <t>CANCEL RESERVATION</t>
+  </si>
+  <si>
+    <t>PAYMENT</t>
+  </si>
+  <si>
+    <t>PRINT TICKET</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>BUS</t>
+  </si>
+  <si>
+    <t>UPDATE ROUTE</t>
+  </si>
+  <si>
+    <t>Customer functionality:: Registration, Login, Bus Availability Enquiry, Make reservation, cancel reservation, print ticket, wallet payment.</t>
+  </si>
+  <si>
+    <t>Admin functionality:: Update Route, Add/Update bus,</t>
+  </si>
+  <si>
+    <t>SEAT AVAILABILITY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +261,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +312,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -222,11 +397,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -258,60 +442,83 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A43976A-7D50-4BA1-8B21-9F2A9C581EFA}">
-  <dimension ref="A2:F40"/>
+  <dimension ref="A2:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,7 +847,7 @@
     <col min="6" max="6" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>0</v>
@@ -658,394 +865,645 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22" t="s">
-        <v>14</v>
+      <c r="H7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="J11" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="J13" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="11"/>
+      <c r="J14" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="2" t="s">
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="H18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="J19" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="14"/>
+      <c r="H21" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="H23" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="H24" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H25" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="H26" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="H27" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="H28" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="H30" s="38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="H31" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="H32" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="6"/>
+      <c r="H33" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="11"/>
+      <c r="F34" s="15"/>
+      <c r="H34" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="12"/>
+      <c r="F35" s="17"/>
+      <c r="H35" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="11"/>
+      <c r="F36" s="6"/>
+      <c r="H36" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="12"/>
+      <c r="F37" s="6"/>
+      <c r="H37" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="11"/>
+      <c r="F38" s="15"/>
+      <c r="H38" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="A33:A43"/>
+    <mergeCell ref="B15:B23"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B30:B40"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B33:B43"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C17:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
